--- a/NSDC_Web_Automation/UploadFiles/CandidateRegistration.xlsx
+++ b/NSDC_Web_Automation/UploadFiles/CandidateRegistration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KirtiSingh\Documents\Repository\NSDC_Web_Automation\nsdcregressiontesting\NSDC_Web_Automation\UploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F9FCD8-5474-4ED4-84C2-5C77669F562F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EFB431-ADAD-47B7-BC5D-B4DFA78BAFC4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
     <t>Graduate</t>
   </si>
   <si>
-    <t>Jam</t>
+    <t>Jimmy</t>
   </si>
 </sst>
 </file>

--- a/NSDC_Web_Automation/UploadFiles/CandidateRegistration.xlsx
+++ b/NSDC_Web_Automation/UploadFiles/CandidateRegistration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KirtiSingh\Documents\Repository\NSDC_Web_Automation\nsdcregressiontesting\NSDC_Web_Automation\UploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EFB431-ADAD-47B7-BC5D-B4DFA78BAFC4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA77FB5-11F7-410F-BE8C-073EA23E54B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
     <t>Graduate</t>
   </si>
   <si>
-    <t>Jimmy</t>
+    <t>Kirti</t>
   </si>
 </sst>
 </file>

--- a/NSDC_Web_Automation/UploadFiles/CandidateRegistration.xlsx
+++ b/NSDC_Web_Automation/UploadFiles/CandidateRegistration.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KirtiSingh\Documents\Repository\NSDC_Web_Automation\nsdcregressiontesting\NSDC_Web_Automation\UploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA77FB5-11F7-410F-BE8C-073EA23E54B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4F8AC3-AAD7-4C9C-81BB-B91D4281BCB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="11025" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="208">
   <si>
     <t>Common Candidate Details</t>
   </si>
@@ -444,56 +444,218 @@
     <t>PlacementTrackingDate3</t>
   </si>
   <si>
-    <t>Bangalore</t>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>25/09/2004</t>
+  </si>
+  <si>
+    <t>04/02/1992</t>
+  </si>
+  <si>
+    <t>31/08/2004</t>
+  </si>
+  <si>
+    <t>01/09/2004</t>
+  </si>
+  <si>
+    <t>Anantpur</t>
+  </si>
+  <si>
+    <t>Aimangala</t>
+  </si>
+  <si>
+    <t>Divorcee</t>
+  </si>
+  <si>
+    <t>Widow</t>
   </si>
   <si>
     <t>Married</t>
   </si>
   <si>
+    <t>MotherName</t>
+  </si>
+  <si>
+    <t>KASARAGOD</t>
+  </si>
+  <si>
+    <t>ANANTAPUR</t>
+  </si>
+  <si>
+    <t>CHITRADURGA</t>
+  </si>
+  <si>
+    <t>NICOBARS</t>
+  </si>
+  <si>
+    <t>KERALA</t>
+  </si>
+  <si>
+    <t>ANDHRA PRADESH</t>
+  </si>
+  <si>
+    <t>KARNATAKA</t>
+  </si>
+  <si>
+    <t>ANDAMAN AND NICOBAR ISLANDS</t>
+  </si>
+  <si>
+    <t>9011223390</t>
+  </si>
+  <si>
+    <t>9011223391</t>
+  </si>
+  <si>
+    <t>9011223392</t>
+  </si>
+  <si>
+    <t>9011223393</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
     <t>OBC</t>
   </si>
   <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>Hindu</t>
   </si>
   <si>
-    <t>Karnataka</t>
+    <t>Muslim</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Sikh</t>
+  </si>
+  <si>
+    <t>577558</t>
+  </si>
+  <si>
+    <t>577559</t>
+  </si>
+  <si>
+    <t>577557</t>
+  </si>
+  <si>
+    <t>577556</t>
+  </si>
+  <si>
+    <t>pals1@gmail.com</t>
+  </si>
+  <si>
+    <t>pals2@gmail.com</t>
+  </si>
+  <si>
+    <t>pals3@gmail.com</t>
+  </si>
+  <si>
+    <t>pals4@gmail.com</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>27/10/1991</t>
-  </si>
-  <si>
-    <t>Mr James</t>
-  </si>
-  <si>
-    <t>Mrs Ema</t>
-  </si>
-  <si>
-    <t>Mr Paul</t>
+    <t>Kasaragod</t>
+  </si>
+  <si>
+    <t>Hiriyur</t>
+  </si>
+  <si>
+    <t>Chitradurga</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>Car Nicobar</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>#301-306, World Mark 1, West Wing, Aerocity</t>
   </si>
   <si>
     <t>Graduate</t>
   </si>
   <si>
-    <t>Kirti</t>
+    <t>Post Graduate</t>
+  </si>
+  <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>#401-406, World Mark 1, West Wing, Aerocity</t>
+  </si>
+  <si>
+    <t>TAMIL NADU</t>
+  </si>
+  <si>
+    <t>TIRUNELVELI</t>
+  </si>
+  <si>
+    <t>Tirunelveli</t>
+  </si>
+  <si>
+    <t>677558</t>
+  </si>
+  <si>
+    <t>Big Lapati</t>
+  </si>
+  <si>
+    <t>Single/Unmarried</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>hsdg</t>
+  </si>
+  <si>
+    <t>sdhgcs</t>
+  </si>
+  <si>
+    <t>dfhg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -542,6 +704,38 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -641,11 +835,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -709,10 +907,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,7 +1051,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -891,7 +1103,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1093,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMG5"/>
+  <dimension ref="A1:AMG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1882,92 +2094,371 @@
       <c r="CJ4" s="22"/>
       <c r="CK4" s="22"/>
     </row>
-    <row r="5" spans="1:89">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:89" ht="15.75">
+      <c r="A5" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="W5" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA5" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:89" ht="15.75">
+      <c r="A6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E6" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA6" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC6" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:89" ht="15.75">
+      <c r="A7" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA7" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:89" ht="15.75">
+      <c r="A8" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>496227</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W5" s="1">
-        <v>496227</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>152</v>
+      <c r="G8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AC5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AC6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AC7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AC8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/NSDC_Web_Automation/UploadFiles/CandidateRegistration.xlsx
+++ b/NSDC_Web_Automation/UploadFiles/CandidateRegistration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KirtiSingh\Documents\Repository\NSDC_Web_Automation\nsdcregressiontesting\NSDC_Web_Automation\UploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4F8AC3-AAD7-4C9C-81BB-B91D4281BCB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160FBB8-1D96-47DC-9957-1EBB2314083F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="11025" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,16 +639,16 @@
     <t>Single/Unmarried</t>
   </si>
   <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>hsdg</t>
-  </si>
-  <si>
-    <t>sdhgcs</t>
-  </si>
-  <si>
-    <t>dfhg</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ghi</t>
+  </si>
+  <si>
+    <t>jkl</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1051,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1103,7 +1103,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
